--- a/Topic List/LeetCode 题单 (version 1).xlsx
+++ b/Topic List/LeetCode 题单 (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\computer learn\Algorithm\ZUO\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729ADF0-3CEE-42D8-BF12-939AFF55B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7924A2-9E24-4D8D-9BF6-09E6F610AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NiuKe  NC349.计算数组的小和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.nowcoder.com/practice/6dca0ebd48f94b4296fc11949e3a91b8?tpId=196&amp;tqId=40415&amp;ru=/exam/oj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,58 @@
   </si>
   <si>
     <t>大根堆 堆排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/merge-k-sorted-lists/submissions/509071833/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 23.合并K个升序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiuKe      NC349.计算数组的小和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority_queue 比较器 小根堆 链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/minimum-number-of-arrows-to-burst-balloons/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 452.用最少数量的箭引爆气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小根堆 比较器 二维数组 结构体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 2208. 将数组和减半的最少操作次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/minimum-operations-to-halve-array-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心 大根堆 比较器 priority_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基数排序 桶排序 按位排序 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,18 +790,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +822,7 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -981,7 +1032,7 @@
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -996,34 +1047,34 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1032,30 +1083,86 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1077,6 +1184,10 @@
     <hyperlink ref="E21" r:id="rId14" xr:uid="{EC3CD58A-1D35-4DA1-8844-2DDCDA6884E5}"/>
     <hyperlink ref="E23" r:id="rId15" xr:uid="{B96DF0A5-AE6A-4B90-AD21-B04F482C2372}"/>
     <hyperlink ref="E3" r:id="rId16" xr:uid="{C5B90A94-A036-4D90-96ED-718AE54072B0}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{7A8B6602-53E8-4430-A1D8-0F853AF924AA}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{E615AE3F-EDB1-4ABE-A15C-BD39F53D05C3}"/>
+    <hyperlink ref="E26" r:id="rId19" xr:uid="{9175D99F-FD99-4CEB-B60C-6CB1D6B1D4C0}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{600F6046-5143-4343-A1BC-49ED4394AA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
